--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_33.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_33.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC98DA-6EC8-476C-9F44-F92314CE36C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8EC5D-5A94-457E-9C56-A1B74E81C88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="964">
   <si>
     <t>Name</t>
   </si>
@@ -2900,6 +2900,18 @@
   </si>
   <si>
     <t>8884620772</t>
+  </si>
+  <si>
+    <t>Nithyashree K H</t>
+  </si>
+  <si>
+    <t>nithyashetty2003@gmail.com</t>
+  </si>
+  <si>
+    <t>8277041393</t>
+  </si>
+  <si>
+    <t>GSSS Inst. of Engg. &amp; Tech. for Women Mysore</t>
   </si>
 </sst>
 </file>
@@ -2918,6 +2930,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3262,7 +3275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B635EF2C-4945-456C-8099-3B1AA54BA243}">
-  <dimension ref="A1:G379"/>
+  <dimension ref="A1:G380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11985,6 +11998,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>960</v>
+      </c>
+      <c r="B380" t="s">
+        <v>961</v>
+      </c>
+      <c r="C380" t="s">
+        <v>962</v>
+      </c>
+      <c r="D380" t="s">
+        <v>963</v>
+      </c>
+      <c r="E380" t="s">
+        <v>133</v>
+      </c>
+      <c r="F380" t="s">
+        <v>41</v>
+      </c>
+      <c r="G380" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
